--- a/results_20141203/res_20140212.xlsx
+++ b/results_20141203/res_20140212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>GrayLUV</t>
+  </si>
+  <si>
+    <t>5,5,5</t>
+  </si>
+  <si>
+    <t>GrLUV</t>
   </si>
 </sst>
 </file>
@@ -428,11 +434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113216896"/>
-        <c:axId val="113230976"/>
+        <c:axId val="55190272"/>
+        <c:axId val="55191808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113216896"/>
+        <c:axId val="55190272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113230976"/>
+        <c:crossAx val="55191808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -450,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113230976"/>
+        <c:axId val="55191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113216896"/>
+        <c:crossAx val="55190272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -705,11 +711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58430592"/>
-        <c:axId val="58432128"/>
+        <c:axId val="55233920"/>
+        <c:axId val="55239808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58430592"/>
+        <c:axId val="55233920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58432128"/>
+        <c:crossAx val="55239808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58432128"/>
+        <c:axId val="55239808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58430592"/>
+        <c:crossAx val="55233920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,15 +1117,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>323232</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>57.594000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1175,8 +1184,17 @@
       <c r="F3">
         <v>63.919899999999998</v>
       </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1195,8 +1213,20 @@
       <c r="F4">
         <v>16.786999999999999</v>
       </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>61.754399999999997</v>
+      </c>
+      <c r="O4" s="1">
+        <v>61.057000000000002</v>
+      </c>
+      <c r="P4" s="1">
+        <v>60.0931</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1215,8 +1245,53 @@
       <c r="F5">
         <v>60.9985</v>
       </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>61.786099999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>63.0319</v>
+      </c>
+      <c r="Q6">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1">
+        <v>38.7423</v>
+      </c>
+      <c r="O9" s="1">
+        <v>38.572299999999998</v>
+      </c>
+      <c r="P9" s="1">
+        <v>38.486199999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1244,8 +1319,14 @@
       <c r="J10" t="s">
         <v>6</v>
       </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
+        <v>38.033999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1276,8 +1357,17 @@
       <c r="J11" s="1">
         <v>73.419499999999999</v>
       </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>39.0015</v>
+      </c>
+      <c r="Q11">
+        <v>41.05</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>

--- a/results_20141203/res_20140212.xlsx
+++ b/results_20141203/res_20140212.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="9600" windowHeight="9270"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="9600" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -61,6 +61,33 @@
   </si>
   <si>
     <t>GrLUV</t>
+  </si>
+  <si>
+    <t>Image level accuracy</t>
+  </si>
+  <si>
+    <t>Patch Level Accuracy</t>
+  </si>
+  <si>
+    <t>Filter size</t>
+  </si>
+  <si>
+    <t>Number of Filters</t>
+  </si>
+  <si>
+    <t>Channels used</t>
+  </si>
+  <si>
+    <t>RGBLUV</t>
+  </si>
+  <si>
+    <t>[32 32 64]</t>
+  </si>
+  <si>
+    <t>[32 32 32]</t>
+  </si>
+  <si>
+    <t>[64 64 64]</t>
   </si>
 </sst>
 </file>
@@ -434,11 +461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55190272"/>
-        <c:axId val="55191808"/>
+        <c:axId val="46232320"/>
+        <c:axId val="46233856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55190272"/>
+        <c:axId val="46232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55191808"/>
+        <c:crossAx val="46233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55191808"/>
+        <c:axId val="46233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55190272"/>
+        <c:crossAx val="46232320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,11 +738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55233920"/>
-        <c:axId val="55239808"/>
+        <c:axId val="46263680"/>
+        <c:axId val="46269568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55233920"/>
+        <c:axId val="46263680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55239808"/>
+        <c:crossAx val="46269568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -732,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55239808"/>
+        <c:axId val="46269568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55233920"/>
+        <c:crossAx val="46263680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1408,12 +1435,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>61.754399999999997</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38.7423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>61.057000000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38.572299999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>60.0931</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38.486199999999997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>61.786099999999998</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38.033999999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>63.0319</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39.0015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>60.66</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39.28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>67.61</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41.55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>73.05</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40.54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>68.03</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40.96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>76.69</v>
+      </c>
+      <c r="B11">
+        <v>41.05</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>61.754399999999997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>61.057000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>60.0931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>61.786099999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>63.0319</v>
+      </c>
+      <c r="E20">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>38.7423</v>
+      </c>
+      <c r="C23" s="1">
+        <v>38.572299999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.486199999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38.033999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>39.0015</v>
+      </c>
+      <c r="E25">
+        <v>41.05</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
